--- a/pred_ohlcv/54_21/2020-01-22 WICC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WICC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>141631.50464685</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>154022.85054685</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>128500.90134685</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>128508.40134685</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>135328.26774685</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>130928.26774685</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>131698.26194685</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>131098.26194685</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>131102.26194685</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>124483.19164685</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>126665.84074685</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>125477.16954685</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>125481.16954685</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>120594.18324685</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>114595.23844685</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>112151.33344685</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>72509.53464684993</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>71803.53464684993</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>71807.53464684993</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>61820.26344684993</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 WICC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WICC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>141631.50464685</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>154022.85054685</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>128500.90134685</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>128508.40134685</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>135328.26774685</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>130928.26774685</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>131698.26194685</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>131098.26194685</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>131102.26194685</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>124483.19164685</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>126665.84074685</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>125477.16954685</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>125481.16954685</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>120594.18324685</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>114595.23844685</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>110986.65194685</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>108995.16944685</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>114001.24404685</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>72509.53464684993</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>71803.53464684993</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>71807.53464684993</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>61820.26344684993</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
